--- a/xls_detailed/backend-syllabus-ext3-3hr-online-3d-week-extfw-adj.xlsx
+++ b/xls_detailed/backend-syllabus-ext3-3hr-online-3d-week-extfw-adj.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexr/dev/_my/az-be-all-master/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexr/dev/_my/java-course/xls_detailed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1136B6B-80B9-8441-9843-04E9FC3A8A17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C732CE-A9CB-FD49-91D4-9E70B14BD1EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19940" yWindow="460" windowWidth="18440" windowHeight="20220" xr2:uid="{9F0B4599-D6E1-ED4B-8425-9CB7C4330D33}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{9F0B4599-D6E1-ED4B-8425-9CB7C4330D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="143">
   <si>
     <t>Topic</t>
   </si>
@@ -397,13 +397,70 @@
   </si>
   <si>
     <t>Real micro-projects:</t>
+  </si>
+  <si>
+    <t>site parsing</t>
+  </si>
+  <si>
+    <t>working with API</t>
+  </si>
+  <si>
+    <t>releasing and using your OWN library</t>
+  </si>
+  <si>
+    <t>Topics to cover</t>
+  </si>
+  <si>
+    <t>licensening</t>
+  </si>
+  <si>
+    <t>readme</t>
+  </si>
+  <si>
+    <t>packaging to jar</t>
+  </si>
+  <si>
+    <t>packaging to docker</t>
+  </si>
+  <si>
+    <t>static analisys</t>
+  </si>
+  <si>
+    <t>test case coverage</t>
+  </si>
+  <si>
+    <t>build automation (npm package)</t>
+  </si>
+  <si>
+    <t>build pipeline</t>
+  </si>
+  <si>
+    <t>release pipeline</t>
+  </si>
+  <si>
+    <t>full cycle: site with name</t>
+  </si>
+  <si>
+    <t>functional and non-functional requirements</t>
+  </si>
+  <si>
+    <t>incremental evolving</t>
+  </si>
+  <si>
+    <t>git advanced: tag!</t>
+  </si>
+  <si>
+    <t>glossary</t>
+  </si>
+  <si>
+    <t>Spring testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -437,6 +494,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -539,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -570,6 +634,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -885,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35446C63-9CD6-A84E-88D9-64F316A14559}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1809,28 +1874,28 @@
         <v>43978</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B52" s="9">
         <f>B51+1</f>
         <v>51</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="23">
-        <v>3</v>
-      </c>
-      <c r="E53" s="6">
+      <c r="D52" s="23">
+        <v>3</v>
+      </c>
+      <c r="E52" s="6">
         <f>E51+2</f>
         <v>43980</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
-        <f t="shared" ref="B54:B70" si="3">B53+1</f>
+        <f>B52+1</f>
         <v>52</v>
       </c>
       <c r="C54" s="18" t="s">
@@ -1840,13 +1905,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="4">
-        <f>E53+3</f>
+        <f>E52+3</f>
         <v>43983</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B55:B70" si="3">B54+1</f>
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2007,7 +2072,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -2023,7 +2088,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -2039,7 +2104,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -2055,7 +2120,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -2071,7 +2136,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -2087,7 +2152,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -2103,15 +2168,102 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D71" s="1">
         <f>SUM(D2:D70)</f>
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="1" t="s">
+    <row r="73" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="28" t="s">
         <v>123</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G76" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G77" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G78" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G79" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G80" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G81" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G82" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G83" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G84" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G85" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G86" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G87" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G88" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
